--- a/Input/Medgulf_Medex/benefits.xlsx
+++ b/Input/Medgulf_Medex/benefits.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="127">
   <si>
     <t xml:space="preserve">PlanName</t>
   </si>
@@ -202,16 +202,13 @@
     <t xml:space="preserve">frequency</t>
   </si>
   <si>
-    <t xml:space="preserve">addons</t>
-  </si>
-  <si>
     <t xml:space="preserve">Plan 1</t>
   </si>
   <si>
     <t xml:space="preserve">AED 1,000,000</t>
   </si>
   <si>
-    <t xml:space="preserve">Worldwide including USA</t>
+    <t xml:space="preserve">Worldwide Including USA</t>
   </si>
   <si>
     <t xml:space="preserve">Mednet Gold</t>
@@ -311,16 +308,13 @@
     <t xml:space="preserve">medgulf_mednet_medex</t>
   </si>
   <si>
-    <t xml:space="preserve">NE/Dubai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-02-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-05-31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consultation 20% up to max AED 50, OP 10% co-pay, Pharma 15% co-pay/15%/10%/20%</t>
+    <t xml:space="preserve">Abu_Dhabi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-10-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultations AED 50, OP NIL co-pay, Pharma 15% co-pay/15%/10%/20%</t>
   </si>
   <si>
     <t xml:space="preserve">NIL - Consultation 20% up to max AED 50, OP 10% co-pay, Pharma 15% co-pay/Consultation NIL co-pay, OP NIL co-pay, Pharma NIL co-pay/Consultation 20% up to max AED 50, OP 20% co-pay, Pharma 20% co-pay</t>
@@ -341,7 +335,7 @@
     <t xml:space="preserve">Covered up to AED 10,000 with $ co-pay</t>
   </si>
   <si>
-    <t xml:space="preserve">Consultation NIL co-pay, OP NIL co-pay, Pharma NIL co-pay/NIL/NIL/NIL</t>
+    <t xml:space="preserve">Consultations AED 50, OP NIL co-pay, Pharma NIL co-pay/NIL/NIL/NIL</t>
   </si>
   <si>
     <t xml:space="preserve">20% up to a max of AED 50 - Consultation 20% up to max AED 50, OP 10% co-pay, Pharma 15% co-pay/Consultation NIL co-pay, OP NIL co-pay, Pharma NIL co-pay/Consultation 20% up to max AED 50, OP 20% co-pay, Pharma 20% co-pay</t>
@@ -372,7 +366,7 @@
     <t xml:space="preserve">Covered with sub-limits up to AED 1,250 with 20% co-pay</t>
   </si>
   <si>
-    <t xml:space="preserve">Consultation 20% up to max AED 50, OP 20% co-pay, Pharma 20% co-pay/20%/20%/20%</t>
+    <t xml:space="preserve">Consultations AED 50, OP NIL co-pay, Pharma 20% co-pay/20%/20%/20%</t>
   </si>
   <si>
     <t xml:space="preserve">Plan 4</t>
@@ -399,7 +393,7 @@
     <t xml:space="preserve">Plan 5</t>
   </si>
   <si>
-    <t xml:space="preserve">Mednet Silk Road (Out Patient treatment restricted to Clinics)</t>
+    <t xml:space="preserve">Mednet Silk Road</t>
   </si>
   <si>
     <t xml:space="preserve">Semi- private Room</t>
@@ -450,9 +444,9 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -543,11 +537,11 @@
   </sheetPr>
   <dimension ref="A1:BN6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BM1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BN5" activeCellId="0" sqref="BN5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BI1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BJ2" activeCellId="0" sqref="BJ2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.84"/>
@@ -567,7 +561,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="2" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="22.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="0" width="11.76"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="60" min="60" style="2" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="2" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="2" width="11.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="0" width="74.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="0" width="39.55"/>
@@ -760,55 +754,52 @@
       <c r="BM1" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="BN1" s="0" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="59.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="P2" s="4"/>
       <c r="Q2" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R2" s="3" t="s">
         <v>58</v>
@@ -817,174 +808,169 @@
         <v>58</v>
       </c>
       <c r="T2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="U2" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="X2" s="4"/>
       <c r="Y2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z2" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="AC2" s="4"/>
       <c r="AD2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE2" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="AF2" s="4"/>
       <c r="AG2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH2" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AH2" s="3" t="s">
+      <c r="AI2" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AK2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL2" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="AK2" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AL2" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="AM2" s="4"/>
       <c r="AN2" s="4"/>
       <c r="AO2" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AP2" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AQ2" s="4"/>
       <c r="AR2" s="4"/>
       <c r="AS2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AT2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AU2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AV2" s="4"/>
       <c r="AW2" s="4"/>
       <c r="AX2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AY2" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="AY2" s="3" t="s">
+      <c r="AZ2" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AZ2" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="BA2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="BB2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="BC2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="BD2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="BE2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="BF2" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="BB2" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="BC2" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="BD2" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="BE2" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="BF2" s="0" t="s">
+      <c r="BG2" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="BG2" s="0" t="s">
+      <c r="BH2" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BH2" s="2" t="s">
+      <c r="BJ2" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="BI2" s="2" t="s">
+      <c r="BK2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BJ2" s="0" t="s">
+      <c r="BM2" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BK2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="BL2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="BM2" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="BN2" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="BN2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="P3" s="4"/>
       <c r="Q3" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="R3" s="3" t="s">
         <v>58</v>
@@ -993,156 +979,154 @@
         <v>58</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="U3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="V3" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="X3" s="4"/>
       <c r="Y3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z3" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="AA3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AB3" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="AC3" s="4"/>
       <c r="AD3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE3" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="AE3" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="AF3" s="4"/>
       <c r="AG3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH3" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AH3" s="3" t="s">
+      <c r="AI3" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AI3" s="3" t="s">
+      <c r="AJ3" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AJ3" s="3" t="s">
+      <c r="AK3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL3" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="AK3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AL3" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="AM3" s="4"/>
       <c r="AN3" s="4"/>
       <c r="AO3" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AP3" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AQ3" s="4"/>
       <c r="AR3" s="4"/>
       <c r="AS3" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AT3" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AU3" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AV3" s="4"/>
       <c r="AW3" s="4"/>
       <c r="AX3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AY3" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="AY3" s="3" t="s">
+      <c r="AZ3" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AZ3" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="BA3" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BB3" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BC3" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BD3" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BE3" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BJ3" s="0" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="BN3" s="4" t="s">
-        <v>30</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="BN3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="P4" s="4"/>
       <c r="Q4" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="R4" s="3" t="s">
         <v>58</v>
@@ -1151,150 +1135,150 @@
         <v>58</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="U4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="V4" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="V4" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="W4" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="X4" s="4"/>
       <c r="Y4" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Z4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA4" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AB4" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="AC4" s="4"/>
       <c r="AD4" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF4" s="4"/>
       <c r="AG4" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AH4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI4" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AI4" s="3" t="s">
+      <c r="AJ4" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AJ4" s="3" t="s">
+      <c r="AK4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL4" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="AK4" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AL4" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="AM4" s="4"/>
       <c r="AN4" s="4"/>
       <c r="AO4" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AP4" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AQ4" s="4"/>
       <c r="AR4" s="4"/>
       <c r="AS4" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AT4" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AU4" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AV4" s="4"/>
       <c r="AW4" s="4"/>
       <c r="AX4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AY4" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="AY4" s="3" t="s">
+      <c r="AZ4" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AZ4" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="BA4" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BB4" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BC4" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BD4" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BE4" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BJ4" s="0" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N5" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="N5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="P5" s="4"/>
       <c r="Q5" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="R5" s="3" t="s">
         <v>58</v>
@@ -1303,147 +1287,147 @@
         <v>58</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="U5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="V5" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="V5" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="W5" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="X5" s="4"/>
       <c r="Y5" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Z5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA5" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AA5" s="3" t="s">
+      <c r="AB5" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="AB5" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="AC5" s="4"/>
       <c r="AD5" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AE5" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF5" s="4"/>
       <c r="AG5" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AH5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI5" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AI5" s="3" t="s">
+      <c r="AJ5" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AJ5" s="3" t="s">
+      <c r="AK5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL5" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="AK5" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AL5" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="AM5" s="4"/>
       <c r="AN5" s="4"/>
       <c r="AO5" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AP5" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AQ5" s="4"/>
       <c r="AR5" s="4"/>
       <c r="AS5" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AT5" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AU5" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AV5" s="4"/>
       <c r="AW5" s="4"/>
       <c r="AX5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AY5" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="AY5" s="3" t="s">
+      <c r="AZ5" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AZ5" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="BA5" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BB5" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BC5" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BD5" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BE5" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="44.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N6" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="L6" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="N6" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="P6" s="4"/>
       <c r="Q6" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="R6" s="3" t="s">
         <v>58</v>
@@ -1452,100 +1436,100 @@
         <v>58</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="U6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="V6" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="V6" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="W6" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="X6" s="4"/>
       <c r="Y6" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Z6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA6" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AA6" s="3" t="s">
+      <c r="AB6" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="AB6" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="AC6" s="4"/>
       <c r="AD6" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AF6" s="4"/>
       <c r="AG6" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AH6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI6" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AI6" s="3" t="s">
+      <c r="AJ6" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AJ6" s="3" t="s">
+      <c r="AK6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL6" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="AK6" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AL6" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="AM6" s="4"/>
       <c r="AN6" s="4"/>
       <c r="AO6" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AP6" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AQ6" s="4"/>
       <c r="AR6" s="4"/>
       <c r="AS6" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AT6" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AU6" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AV6" s="4"/>
       <c r="AW6" s="4"/>
       <c r="AX6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AY6" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="AY6" s="3" t="s">
+      <c r="AZ6" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AZ6" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="BA6" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BB6" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BC6" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BD6" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BE6" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
